--- a/raw/necropsy/20250714_r3_GR_USDA-LNs_RT-QuIC.xlsx
+++ b/raw/necropsy/20250714_r3_GR_USDA-LNs_RT-QuIC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gage1\Documents\Work\usda-validation\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowde002\Documents\Projects\usda-validation\raw\necropsy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB02121-0F43-45B0-ACC7-B001C50FCCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668BC758-4555-49C2-ACED-B09F0BBF62C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{645907FE-6AAD-4FFC-986D-82C4AEBA2A74}"/>
+    <workbookView xWindow="-28905" yWindow="105" windowWidth="14610" windowHeight="15585" xr2:uid="{645907FE-6AAD-4FFC-986D-82C4AEBA2A74}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate Cycle 1 (0 h)" sheetId="2" r:id="rId1"/>
@@ -32,12 +32,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="160">
   <si>
     <t>User: USER</t>
   </si>
@@ -745,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -801,9 +804,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1140,13 +1140,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9BC528-ED8E-4B71-89EA-2A353E4749E0}">
   <dimension ref="A3:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:M34"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1615,38 +1622,38 @@
       <c r="B27" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>147</v>
+      <c r="C27" s="11">
+        <v>2285</v>
+      </c>
+      <c r="D27" s="11">
+        <v>2286</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2287</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1969</v>
+      </c>
+      <c r="G27" s="11">
+        <v>2293</v>
+      </c>
+      <c r="H27" s="11">
+        <v>1970</v>
+      </c>
+      <c r="I27" s="11">
+        <v>2288</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1972</v>
+      </c>
+      <c r="K27" s="11">
+        <v>1974</v>
+      </c>
+      <c r="L27" s="11">
+        <v>2294</v>
+      </c>
+      <c r="M27" s="12">
+        <v>1976</v>
       </c>
       <c r="O27" s="20"/>
     </row>
@@ -1657,38 +1664,38 @@
       <c r="B28" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>147</v>
+      <c r="C28" s="11">
+        <v>2285</v>
+      </c>
+      <c r="D28" s="11">
+        <v>2286</v>
+      </c>
+      <c r="E28" s="11">
+        <v>2287</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1969</v>
+      </c>
+      <c r="G28" s="11">
+        <v>2293</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1970</v>
+      </c>
+      <c r="I28" s="11">
+        <v>2288</v>
+      </c>
+      <c r="J28" s="11">
+        <v>1972</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1974</v>
+      </c>
+      <c r="L28" s="11">
+        <v>2294</v>
+      </c>
+      <c r="M28" s="12">
+        <v>1976</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1698,38 +1705,38 @@
       <c r="B29" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>147</v>
+      <c r="C29" s="11">
+        <v>2285</v>
+      </c>
+      <c r="D29" s="11">
+        <v>2286</v>
+      </c>
+      <c r="E29" s="11">
+        <v>2287</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1969</v>
+      </c>
+      <c r="G29" s="11">
+        <v>2293</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1970</v>
+      </c>
+      <c r="I29" s="11">
+        <v>2288</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1972</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1974</v>
+      </c>
+      <c r="L29" s="11">
+        <v>2294</v>
+      </c>
+      <c r="M29" s="12">
+        <v>1976</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1739,38 +1746,38 @@
       <c r="B30" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>147</v>
+      <c r="C30" s="11">
+        <v>2285</v>
+      </c>
+      <c r="D30" s="11">
+        <v>2286</v>
+      </c>
+      <c r="E30" s="11">
+        <v>2287</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1969</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2293</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1970</v>
+      </c>
+      <c r="I30" s="11">
+        <v>2288</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1972</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1974</v>
+      </c>
+      <c r="L30" s="11">
+        <v>2294</v>
+      </c>
+      <c r="M30" s="12">
+        <v>1976</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -1780,38 +1787,38 @@
       <c r="B31" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="L31" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>147</v>
+      <c r="C31" s="11">
+        <v>2285</v>
+      </c>
+      <c r="D31" s="11">
+        <v>2286</v>
+      </c>
+      <c r="E31" s="11">
+        <v>2287</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1969</v>
+      </c>
+      <c r="G31" s="11">
+        <v>2293</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1970</v>
+      </c>
+      <c r="I31" s="11">
+        <v>2288</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1972</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1974</v>
+      </c>
+      <c r="L31" s="11">
+        <v>2294</v>
+      </c>
+      <c r="M31" s="12">
+        <v>1976</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1821,38 +1828,38 @@
       <c r="B32" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>147</v>
+      <c r="C32" s="11">
+        <v>2285</v>
+      </c>
+      <c r="D32" s="11">
+        <v>2286</v>
+      </c>
+      <c r="E32" s="11">
+        <v>2287</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1969</v>
+      </c>
+      <c r="G32" s="11">
+        <v>2293</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1970</v>
+      </c>
+      <c r="I32" s="11">
+        <v>2288</v>
+      </c>
+      <c r="J32" s="11">
+        <v>1972</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1974</v>
+      </c>
+      <c r="L32" s="11">
+        <v>2294</v>
+      </c>
+      <c r="M32" s="12">
+        <v>1976</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -1862,38 +1869,38 @@
       <c r="B33" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="M33" s="14" t="s">
-        <v>147</v>
+      <c r="C33" s="11">
+        <v>2285</v>
+      </c>
+      <c r="D33" s="11">
+        <v>2286</v>
+      </c>
+      <c r="E33" s="11">
+        <v>2287</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1969</v>
+      </c>
+      <c r="G33" s="11">
+        <v>2293</v>
+      </c>
+      <c r="H33" s="11">
+        <v>1970</v>
+      </c>
+      <c r="I33" s="11">
+        <v>2288</v>
+      </c>
+      <c r="J33" s="11">
+        <v>1972</v>
+      </c>
+      <c r="K33" s="11">
+        <v>1974</v>
+      </c>
+      <c r="L33" s="11">
+        <v>2294</v>
+      </c>
+      <c r="M33" s="12">
+        <v>1976</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -1903,38 +1910,38 @@
       <c r="B34" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>147</v>
+      <c r="C34" s="11">
+        <v>2285</v>
+      </c>
+      <c r="D34" s="11">
+        <v>2286</v>
+      </c>
+      <c r="E34" s="11">
+        <v>2287</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1969</v>
+      </c>
+      <c r="G34" s="11">
+        <v>2293</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1970</v>
+      </c>
+      <c r="I34" s="11">
+        <v>2288</v>
+      </c>
+      <c r="J34" s="11">
+        <v>1972</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1974</v>
+      </c>
+      <c r="L34" s="11">
+        <v>2294</v>
+      </c>
+      <c r="M34" s="12">
+        <v>1976</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
